--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2066.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2066.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.160681217862081</v>
+        <v>1.305558323860168</v>
       </c>
       <c r="B1">
-        <v>2.883025039212235</v>
+        <v>3.724775791168213</v>
       </c>
       <c r="C1">
-        <v>4.501519460012235</v>
+        <v>4.044373035430908</v>
       </c>
       <c r="D1">
-        <v>3.009216523079717</v>
+        <v>2.85629415512085</v>
       </c>
       <c r="E1">
-        <v>1.206968028179625</v>
+        <v>1.051178216934204</v>
       </c>
     </row>
   </sheetData>
